--- a/data/trans_orig/iP30KDA4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A86DB9-50F9-4FC0-B4AC-9DA6E84D546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81FF535-6147-4E23-B9C1-1E1325EFB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD3C3CFB-0D4A-4B3F-BC4E-ED8C7227B05A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5D9BD7E-A77F-4286-806F-22C3B0C99CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas más de una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
   </si>
   <si>
     <t>54,13%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E36F148-FB9F-4DD5-BEFC-1D6C3BDD488A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A66674D-38BA-412A-A706-801D9DFF851B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26891</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>30545</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>57435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26808</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>54608</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>270</v>
+      </c>
+      <c r="D7" s="7">
+        <v>184339</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>285</v>
+      </c>
+      <c r="I7" s="7">
+        <v>231773</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>555</v>
+      </c>
+      <c r="N7" s="7">
+        <v>416112</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="7">
-        <v>29411</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>35</v>
-      </c>
-      <c r="I7" s="7">
-        <v>27784</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7">
-        <v>75</v>
-      </c>
-      <c r="N7" s="7">
-        <v>57195</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="D8" s="7">
-        <v>26102</v>
+        <v>267493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="I8" s="7">
-        <v>22370</v>
+        <v>273477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>69</v>
+        <v>700</v>
       </c>
       <c r="N8" s="7">
-        <v>48472</v>
+        <v>540970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>285</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>221805</v>
+        <v>65417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>190085</v>
+        <v>84196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>411889</v>
+        <v>149613</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>259521</v>
+        <v>80769</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>251169</v>
+        <v>96943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>700</v>
+        <v>241</v>
       </c>
       <c r="N11" s="7">
-        <v>510691</v>
+        <v>177711</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="D13" s="7">
-        <v>81929</v>
+        <v>276647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>437</v>
       </c>
       <c r="I13" s="7">
-        <v>67702</v>
+        <v>346514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>214</v>
+        <v>844</v>
       </c>
       <c r="N13" s="7">
-        <v>149631</v>
+        <v>623161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>507</v>
       </c>
       <c r="D14" s="7">
-        <v>90565</v>
+        <v>375070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="I14" s="7">
-        <v>80328</v>
+        <v>398219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>241</v>
+        <v>1010</v>
       </c>
       <c r="N14" s="7">
-        <v>170893</v>
+        <v>773289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>437</v>
-      </c>
-      <c r="D16" s="7">
-        <v>333145</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>408</v>
-      </c>
-      <c r="I16" s="7">
-        <v>286742</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>845</v>
-      </c>
-      <c r="N16" s="7">
-        <v>619886</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>503</v>
-      </c>
-      <c r="D17" s="7">
-        <v>376188</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>507</v>
-      </c>
-      <c r="I17" s="7">
-        <v>353867</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1010</v>
-      </c>
-      <c r="N17" s="7">
-        <v>730056</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
